--- a/4 Conditional Formatting/Conditional Formatting - 2. Top and Bottom Rules.xlsx
+++ b/4 Conditional Formatting/Conditional Formatting - 2. Top and Bottom Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\5.5 Conditional Formatting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/4 Conditional Formatting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F53602-048A-43ED-A68B-FA4B9D6BCEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{A6F53602-048A-43ED-A68B-FA4B9D6BCEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DBCFF34-A39F-4401-8F30-509A1B482465}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="3" xr2:uid="{94C39369-CB0B-42C0-9EC9-550FA6C4F019}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{94C39369-CB0B-42C0-9EC9-550FA6C4F019}"/>
   </bookViews>
   <sheets>
     <sheet name="Highlight Cells" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Highlight Cells 3'!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -300,16 +299,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="10">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -318,11 +320,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -408,115 +410,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -531,9 +424,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -571,7 +464,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -677,7 +570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -819,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1290,20 +1183,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1343,7 +1236,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>44972</v>
       </c>
       <c r="B2" t="s">
@@ -1351,7 +1244,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>45005</v>
       </c>
       <c r="B3" t="s">
@@ -1359,7 +1252,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>45021</v>
       </c>
       <c r="B4" t="s">
@@ -1367,7 +1260,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>45058</v>
       </c>
       <c r="B5" t="s">
@@ -1375,7 +1268,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>45085</v>
       </c>
       <c r="B6" t="s">
@@ -1383,7 +1276,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>45125</v>
       </c>
       <c r="B7" t="s">
@@ -1391,7 +1284,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>45162</v>
       </c>
       <c r="B8" t="s">
@@ -1399,7 +1292,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>45179</v>
       </c>
       <c r="B9" t="s">
@@ -1407,7 +1300,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>45215</v>
       </c>
       <c r="B10" t="s">
@@ -1415,7 +1308,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>45260</v>
       </c>
       <c r="B11" t="s">
@@ -1429,7 +1322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="1TB">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1TB">
       <formula>NOT(ISERROR(SEARCH("1TB",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1612,7 +1505,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" xr:uid="{A5B30854-AEE9-4819-9C2D-1F4E79016334}"/>
@@ -1628,7 +1521,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2088,28 +1981,28 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2117,6 +2010,15 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="aboveAverage" dxfId="4" priority="3" aboveAverage="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:M5">
+    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M11">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2586,12 +2488,12 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
